--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_657.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_657.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29105-d84380-Reviews-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Residence-Inn-By-Marriott-Pasadena-Arcadia.h2739.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_657.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_657.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,402 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r570440155-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>29105</t>
+  </si>
+  <si>
+    <t>84380</t>
+  </si>
+  <si>
+    <t>570440155</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel near Los Angeles</t>
+  </si>
+  <si>
+    <t>This is a nice hotel, if you like this style of hotel.  They have two floors, but to go to the second floor, there is no elevator.  I would say the hotel is ok for a short stay, but I am wondering why hotels are giving you handicapped room when you don't ask it !MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>MJ B, Manager at Residence Inn by Marriott Pasadena Arcadia, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>This is a nice hotel, if you like this style of hotel.  They have two floors, but to go to the second floor, there is no elevator.  I would say the hotel is ok for a short stay, but I am wondering why hotels are giving you handicapped room when you don't ask it !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r562190804-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>562190804</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Nice brand new Marriott.  I try to only stay at brand new Marriott's when I travel to local areas for business . This one was great. Awesome staff and brand new rooms. Good location and will stay here again when I am in the area. Friendly front desk . good trip</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r550066100-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>550066100</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Nice extended stay hotel. Staff member (Kyle) was very nice and was very helpful with our short notice 7 night booking. 2 bedroom suite was great. My only complaint and reason i am giving it 4 stars is that for a Marriott property the bed could be better - in particular the sheets were not great quality, they probably could be replaced. Also noise from the parking lot/freeway was a slight issue. Otherwise stay was good!</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r525030322-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>525030322</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Like having an apartment. Really, really nice. Super clean. Great stay.</t>
+  </si>
+  <si>
+    <t>Super clean and seriously the comfort of home. So nice on an long stay - we spent 10 nights - to be able to cook, relax and feel as if you are in an apartment and hotel room. Our first experience at Residence Inn. The Pasadena Arcadia Inn is really, really nice. The hotel staff were super friendly and very helpful. Morning breakfast is substantial. Great fresh waffles. Pool was clean and enjoyed that quite a bit.We are very picky about a room being clean. These rooms are very clean. If you get the second story room, be ready for stairs. I got a work out but it was good for me. The hotel is in walking distance of lots of stuff, including a great Blues club. And a drive to local grocery stores is only a short distance. Lots to do and see in the area. Malls are not typically on my list but the mall nearby is really, really nice.If we are in the area, this is where we will stay and based on this experience I will seek out a Residence Inn in other areas if available.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Super clean and seriously the comfort of home. So nice on an long stay - we spent 10 nights - to be able to cook, relax and feel as if you are in an apartment and hotel room. Our first experience at Residence Inn. The Pasadena Arcadia Inn is really, really nice. The hotel staff were super friendly and very helpful. Morning breakfast is substantial. Great fresh waffles. Pool was clean and enjoyed that quite a bit.We are very picky about a room being clean. These rooms are very clean. If you get the second story room, be ready for stairs. I got a work out but it was good for me. The hotel is in walking distance of lots of stuff, including a great Blues club. And a drive to local grocery stores is only a short distance. Lots to do and see in the area. Malls are not typically on my list but the mall nearby is really, really nice.If we are in the area, this is where we will stay and based on this experience I will seek out a Residence Inn in other areas if available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r524997212-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>524997212</t>
+  </si>
+  <si>
+    <t>Old Style Residence Inn</t>
+  </si>
+  <si>
+    <t>Nice hotel. It is the old style Residence Inn that is 2 story with no elevators. They have a decent  outdoor pool area that we didn't use. We had the loft room with a King bed and pull out sofa. When we arrived our sliding door was open and there were guitar picks on the floor and no pillows for the pull out mattress. They did deliver pillows within minutes after the second request. Very friendly front desk and breakfast staff'MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>MJ B, Manager at Residence Inn by Marriott Pasadena Arcadia, responded to this reviewResponded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel. It is the old style Residence Inn that is 2 story with no elevators. They have a decent  outdoor pool area that we didn't use. We had the loft room with a King bed and pull out sofa. When we arrived our sliding door was open and there were guitar picks on the floor and no pillows for the pull out mattress. They did deliver pillows within minutes after the second request. Very friendly front desk and breakfast staff'More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r522068232-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>522068232</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>What a steal before it's upgraded to cat 6!</t>
+  </si>
+  <si>
+    <t>We have been very happy with all staffs at this Residence Inn since breakfast to dinner. Dinners are simple but handy. At weekends people come to the pool side and BBQ. The kitchen is with good space and a full size stove.And the location is perfect. Just walk out for 3 min there are several good restaurants, such as the Capital Seafood. Less than 10 min driving we were at several plaza where were the best restaurants, such as China Red.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r486243067-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>486243067</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Wonderful staff but not happy with dog urine in the room</t>
+  </si>
+  <si>
+    <t>We came here to for a U2 concert at the Rose Bowl. We got there late so just checked in and put down our stuff. Check in staff was helpful. I noticed a wet spot in the carpet and since we have dogs at home I immediately realized this was dog urine. Too busy to do anything about it. We put a towel over it. Came back really late. Just crashed. The whole room smelled like dog urine. Told them when we checked out. No apology just said ok thanks for telling us. Thought there should have been a discount offered for the room. If we hadn't been so tired we would have had to change rooms or leave but fatigue took us over. The staff here is very nice and friendly. Not sure why not very receptive on check out. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>MJ B, Manager at Residence Inn by Marriott Pasadena Arcadia, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>We came here to for a U2 concert at the Rose Bowl. We got there late so just checked in and put down our stuff. Check in staff was helpful. I noticed a wet spot in the carpet and since we have dogs at home I immediately realized this was dog urine. Too busy to do anything about it. We put a towel over it. Came back really late. Just crashed. The whole room smelled like dog urine. Told them when we checked out. No apology just said ok thanks for telling us. Thought there should have been a discount offered for the room. If we hadn't been so tired we would have had to change rooms or leave but fatigue took us over. The staff here is very nice and friendly. Not sure why not very receptive on check out. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r479250931-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>479250931</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Good location, good-sized suites</t>
+  </si>
+  <si>
+    <t>We stayed with our family of 5 and the suite was spacious enough for us. The hotel is right by the highway (freeway ?) 210 which gets you to downtown Pasadena in 10 min and downtown LA in 25min (traffic permitting). Pool was nice, basketball court as well. Walking distance to main street. Free breakfast is standard for this chain, but was presented well</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r474137661-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>474137661</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Great location, Super Staff</t>
+  </si>
+  <si>
+    <t>Wonderfully located property just off the main drag of Arcadia.  Lots of restaurants close by, very pretty property and a very helpful, professional, friendly staff.  I'll try to stay here every time I'm in the area.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r468700465-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>468700465</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Can't Anyone Clean Any Better?</t>
+  </si>
+  <si>
+    <t>We have stayed at this Residence Inn several times. The time before this trip, we had two 2-bedroom units. We love the layout of the rooms, but the rooms were mediocre in cleanliness. We had mentioned this to the manager in a Residence Inn review previously, and her reply was that she was surprised at our comments about the floor not being vacuumed well and bits and pieces of trash, pills, as well as hairs in the bathroom and shower. She stated that their cleanliness is above normal. Well, it is not. Before we booked this trip, we searched for another hotel, but hotels are busy in March, and California is usually full of tourists. The location is very convenient, so we opted to stay here again. We had a studio this time--first time for this type of unit. The layout is terrible. The couch is in the way at all times. It was crowded even for just 2 people. The couch is very uncomfortable for sitting. I realize it is a sofa bed, but still, we have vacation homes, and our sofa beds have high backs and are large and comfortable for guests to relax on while sitting as well as comfortable for sleeping. They could also put some foot stools as watching TV was very uncomfortable. The lower level was  so noisy during the night from the upstairs people and people outside coming and going until 2 or...We have stayed at this Residence Inn several times. The time before this trip, we had two 2-bedroom units. We love the layout of the rooms, but the rooms were mediocre in cleanliness. We had mentioned this to the manager in a Residence Inn review previously, and her reply was that she was surprised at our comments about the floor not being vacuumed well and bits and pieces of trash, pills, as well as hairs in the bathroom and shower. She stated that their cleanliness is above normal. Well, it is not. Before we booked this trip, we searched for another hotel, but hotels are busy in March, and California is usually full of tourists. The location is very convenient, so we opted to stay here again. We had a studio this time--first time for this type of unit. The layout is terrible. The couch is in the way at all times. It was crowded even for just 2 people. The couch is very uncomfortable for sitting. I realize it is a sofa bed, but still, we have vacation homes, and our sofa beds have high backs and are large and comfortable for guests to relax on while sitting as well as comfortable for sleeping. They could also put some foot stools as watching TV was very uncomfortable. The lower level was  so noisy during the night from the upstairs people and people outside coming and going until 2 or 3 a.m.. There was a clanging noise in the locked closed where (I think) the heating/air conditioning unit is located. Every time the unit stopped running, the clanging started. I got little sleep. Cleanliness was again a major drawback. When we first entered the room, there was a foul odor. We opened the kitchen sink cabinet, and the trash can was there--FULL. It smelled terrible. We called the front desk and they said they would send someone from housekeeping. The garbage disposal also smelled. We put detergent in it and ran it which helped. In the meantime, we found trash on the floor (clippings from the tags on new clothes) and dirt particles. It looked like they just vacuumed (or attempted to) in a rush and whatever didn't get picked up in that quick swipe just remained on the floor. The person from housekeeping came immediately and took the trash and we mentioned the poor vacuum job. She offered to bring a vacuum and do the floor again, but we told her "never mind" since we brought out slippers to prevent having to walk on the floors! All of this is totally unnecessary if one hires good housekeepers and really checks their work or requires them to do a good job to get paid. I was so disgusted by our previous stay that I tried not to look at everything else carefully in case I might find something. I would like to see all of these units get a once in 3 months spring cleaning. The coffee pot had swirls on the top of it from a dirty wet towel having been dragged over it--obviously not a good cleaning. I didn't even want to use the remote control as it was sticky, and when I slapped my hand down on the couch, dust flew everywhere. Nothing was horrible, but still, can't they take time to vacuum the couch and wipe down the remote control? They did have lots of electrical outlets for our electronic gadgets, and they were all within easy reach. There were 2 closets which helps with 2 guests. It would have been nice to have 2 bathroom sinks, but . . . . Parking is horrible if you don't get a space before 10 p.m. Literally, they don't have enough spots and you may end up parking a long way from your unit or having to drop off your family members and then go back and find a space and walk back. The free breakfast was horrible. The first morning my friend got food and I wasn't sure of what it was. The only decent items were the self-made waffles and the fruit and coffee. Other items were really difficult to take even the first bite. We just went to McDonald's the second morning. This is the best location for visiting Santa Anita, and we really like the "idea" of the Residence Inn, but we are going to continue to look elsewhere for our next visit, even if it means driving a few more miles to the track. I'm not sure this is possible. I would have given fewer stars, but I think other hotels are about the same quality on cleanliness. For the money that they charge, the cleaning and breakfast should be superb. Therefore, I rated it average, but this is just in comparison to other hotels. MoreShow less</t>
+  </si>
+  <si>
+    <t>MJ B, Manager at Residence Inn by Marriott Pasadena Arcadia, responded to this reviewResponded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed at this Residence Inn several times. The time before this trip, we had two 2-bedroom units. We love the layout of the rooms, but the rooms were mediocre in cleanliness. We had mentioned this to the manager in a Residence Inn review previously, and her reply was that she was surprised at our comments about the floor not being vacuumed well and bits and pieces of trash, pills, as well as hairs in the bathroom and shower. She stated that their cleanliness is above normal. Well, it is not. Before we booked this trip, we searched for another hotel, but hotels are busy in March, and California is usually full of tourists. The location is very convenient, so we opted to stay here again. We had a studio this time--first time for this type of unit. The layout is terrible. The couch is in the way at all times. It was crowded even for just 2 people. The couch is very uncomfortable for sitting. I realize it is a sofa bed, but still, we have vacation homes, and our sofa beds have high backs and are large and comfortable for guests to relax on while sitting as well as comfortable for sleeping. They could also put some foot stools as watching TV was very uncomfortable. The lower level was  so noisy during the night from the upstairs people and people outside coming and going until 2 or...We have stayed at this Residence Inn several times. The time before this trip, we had two 2-bedroom units. We love the layout of the rooms, but the rooms were mediocre in cleanliness. We had mentioned this to the manager in a Residence Inn review previously, and her reply was that she was surprised at our comments about the floor not being vacuumed well and bits and pieces of trash, pills, as well as hairs in the bathroom and shower. She stated that their cleanliness is above normal. Well, it is not. Before we booked this trip, we searched for another hotel, but hotels are busy in March, and California is usually full of tourists. The location is very convenient, so we opted to stay here again. We had a studio this time--first time for this type of unit. The layout is terrible. The couch is in the way at all times. It was crowded even for just 2 people. The couch is very uncomfortable for sitting. I realize it is a sofa bed, but still, we have vacation homes, and our sofa beds have high backs and are large and comfortable for guests to relax on while sitting as well as comfortable for sleeping. They could also put some foot stools as watching TV was very uncomfortable. The lower level was  so noisy during the night from the upstairs people and people outside coming and going until 2 or 3 a.m.. There was a clanging noise in the locked closed where (I think) the heating/air conditioning unit is located. Every time the unit stopped running, the clanging started. I got little sleep. Cleanliness was again a major drawback. When we first entered the room, there was a foul odor. We opened the kitchen sink cabinet, and the trash can was there--FULL. It smelled terrible. We called the front desk and they said they would send someone from housekeeping. The garbage disposal also smelled. We put detergent in it and ran it which helped. In the meantime, we found trash on the floor (clippings from the tags on new clothes) and dirt particles. It looked like they just vacuumed (or attempted to) in a rush and whatever didn't get picked up in that quick swipe just remained on the floor. The person from housekeeping came immediately and took the trash and we mentioned the poor vacuum job. She offered to bring a vacuum and do the floor again, but we told her "never mind" since we brought out slippers to prevent having to walk on the floors! All of this is totally unnecessary if one hires good housekeepers and really checks their work or requires them to do a good job to get paid. I was so disgusted by our previous stay that I tried not to look at everything else carefully in case I might find something. I would like to see all of these units get a once in 3 months spring cleaning. The coffee pot had swirls on the top of it from a dirty wet towel having been dragged over it--obviously not a good cleaning. I didn't even want to use the remote control as it was sticky, and when I slapped my hand down on the couch, dust flew everywhere. Nothing was horrible, but still, can't they take time to vacuum the couch and wipe down the remote control? They did have lots of electrical outlets for our electronic gadgets, and they were all within easy reach. There were 2 closets which helps with 2 guests. It would have been nice to have 2 bathroom sinks, but . . . . Parking is horrible if you don't get a space before 10 p.m. Literally, they don't have enough spots and you may end up parking a long way from your unit or having to drop off your family members and then go back and find a space and walk back. The free breakfast was horrible. The first morning my friend got food and I wasn't sure of what it was. The only decent items were the self-made waffles and the fruit and coffee. Other items were really difficult to take even the first bite. We just went to McDonald's the second morning. This is the best location for visiting Santa Anita, and we really like the "idea" of the Residence Inn, but we are going to continue to look elsewhere for our next visit, even if it means driving a few more miles to the track. I'm not sure this is possible. I would have given fewer stars, but I think other hotels are about the same quality on cleanliness. For the money that they charge, the cleaning and breakfast should be superb. Therefore, I rated it average, but this is just in comparison to other hotels. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r454772833-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>454772833</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pet Friendly - Good or bad? </t>
+  </si>
+  <si>
+    <t>In our case it was bad. Hard to blame the hotel staff. Inconsiderate couple next door had two dogs constantly yapping. Worst yet they walked them every 6:15AM throughout the hotel walkways just outside most lower rooms. We love dogs but strange that these barked non stop while walking. We tried to be patient but finally cut our stay from 8 nights to 5. Plus side: Great staff, room size, full kitchen, large fridge with ice maker, good variety at breakfast, safe location. Valiant effort by Housekeeping in days of pouring rain (all walkways outside). Minus side: Not quiet (can hear all outside conversations) bad internet, non smoking room smelled of smoke, carpet needed cleaning ( same issue years ago), room didn't seem "newly renovated" as stated, repair men not the swiftest ( repaired bath door lock backwards so was immediately locked in). MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>MJ B, Manager at Residence Inn by Marriott Pasadena Arcadia, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>In our case it was bad. Hard to blame the hotel staff. Inconsiderate couple next door had two dogs constantly yapping. Worst yet they walked them every 6:15AM throughout the hotel walkways just outside most lower rooms. We love dogs but strange that these barked non stop while walking. We tried to be patient but finally cut our stay from 8 nights to 5. Plus side: Great staff, room size, full kitchen, large fridge with ice maker, good variety at breakfast, safe location. Valiant effort by Housekeeping in days of pouring rain (all walkways outside). Minus side: Not quiet (can hear all outside conversations) bad internet, non smoking room smelled of smoke, carpet needed cleaning ( same issue years ago), room didn't seem "newly renovated" as stated, repair men not the swiftest ( repaired bath door lock backwards so was immediately locked in). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r454508824-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>454508824</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Decent, not great</t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights while visiting friends in area. Staff friendly and courteous. Our original room overlooked the basketball courts and when we asked, they moved us right away to a quieter location. Breakfast was good. Compared to other Marriott properties we have stayed, rooms could use updating and a better cleaning. We wouldn't rule out staying here again but will also explore other options.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights while visiting friends in area. Staff friendly and courteous. Our original room overlooked the basketball courts and when we asked, they moved us right away to a quieter location. Breakfast was good. Compared to other Marriott properties we have stayed, rooms could use updating and a better cleaning. We wouldn't rule out staying here again but will also explore other options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r427758130-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>427758130</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Pretty decent place, remarkably quiet</t>
+  </si>
+  <si>
+    <t>The staff is very friendly, particularly the breakfast host and housekeeping folks.  The rooms are a little dark but clean and decently equipped.  Despite being very near the freeway, the rooms are quiet.  There is a desk area I was able to use for work.The bathrooms need some updating, but they are clean.  All in all, a good spot to stay convenient to numerous locations.  We did not use the pool but it looked inviting.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r419610307-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>419610307</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Need to Upgrade Bedsheets</t>
+  </si>
+  <si>
+    <t>This was our second stay here while visiting family in the area. I thought it was a fairly decent hotel when we stayed last year. This time I was uneasy about the cleanliness factor. When I found that the trashcan under the kitchen sink was half full, it made me wonder what else housekeeping overlooked. The property is older but the rooms look recently renovated.  Although the bed was pretty comfortable, the sheets need an upgrade.  I don't know if the sheets were really old or just cheap but there was so much cotton pilling on them. It definitely did not feel nice against my skin. I'm glad that we just stayed for one night. On a positive note, the staff is always pleasant and the hotel is located in a good area. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>MJ B, Manager at Residence Inn by Marriott Pasadena Arcadia, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>This was our second stay here while visiting family in the area. I thought it was a fairly decent hotel when we stayed last year. This time I was uneasy about the cleanliness factor. When I found that the trashcan under the kitchen sink was half full, it made me wonder what else housekeeping overlooked. The property is older but the rooms look recently renovated.  Although the bed was pretty comfortable, the sheets need an upgrade.  I don't know if the sheets were really old or just cheap but there was so much cotton pilling on them. It definitely did not feel nice against my skin. I'm glad that we just stayed for one night. On a positive note, the staff is always pleasant and the hotel is located in a good area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r419288786-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>419288786</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Always reliable and near the Metro</t>
+  </si>
+  <si>
+    <t>When you don't feel like going fancy, but you still like a nice experience with perks (esp if you have elite status of some sort), then RI's are an excellent choice.I use this one especially because it's near an LA Metro line (Gold), and I'm a huge fan of PT when in LA (as a former local who was based in Hollywood, I'm all about NOT driving in LA). The breakfast spread is nice as well.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r389607244-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>389607244</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very friendly staff and a great place to stay for families with kids. It was fully remodeled and it looked great. The penthouse was very modern and bright. There was plenty of room for our family of 7. It's nicely located away from the Main Street so it was not noisy. Would definitely stay here again. The breakfast was just ok. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r382869827-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>382869827</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Very nice place - Stayed in between homes</t>
+  </si>
+  <si>
+    <t>Great place to stay.  All the creature comforts of home.  We stayed here in between moving.  It was pet friendly which we needed and not easy to find.   The room was clean and we got free breakfast in the mornings</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r379738421-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
+  </si>
+  <si>
+    <t>379738421</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Just Ok</t>
+  </si>
+  <si>
+    <t>My husband and I with our dog stayed here for one night. It is in a decent location - we could walk to a local Thai restaurant for dinner. It is pet friendly - but again the pet fee ($100 per stay) is high if only staying for one night. There was no one at the front desk when we arrived so we were waiting awhile. The rooms are recently renovated but it is not a complete renovation - the shower I do not think was not new and had a few spots of what I think was mold. I had requested a feather-free room when reserving this room on the Marriott website and I did not get a feather-free room and had to sort that out. I was happy I got a ground floor room as we had a lot of luggage and there are no elevators on the property. Unfortunately, I did develop a rash on my arms from what I can only believe was from the bed sheets. Not the best. No major noise from roads or neighbors. Would I want to stay for more than one night - not really.MoreShow less</t>
+  </si>
+  <si>
+    <t>MJ B, Manager at Residence Inn by Marriott Pasadena Arcadia, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I with our dog stayed here for one night. It is in a decent location - we could walk to a local Thai restaurant for dinner. It is pet friendly - but again the pet fee ($100 per stay) is high if only staying for one night. There was no one at the front desk when we arrived so we were waiting awhile. The rooms are recently renovated but it is not a complete renovation - the shower I do not think was not new and had a few spots of what I think was mold. I had requested a feather-free room when reserving this room on the Marriott website and I did not get a feather-free room and had to sort that out. I was happy I got a ground floor room as we had a lot of luggage and there are no elevators on the property. Unfortunately, I did develop a rash on my arms from what I can only believe was from the bed sheets. Not the best. No major noise from roads or neighbors. Would I want to stay for more than one night - not really.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1044,1108 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27410</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>173</v>
+      </c>
+      <c r="X19" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_657.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_657.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="194">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Francois V</t>
+  </si>
+  <si>
     <t>07/09/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>This is a nice hotel, if you like this style of hotel.  They have two floors, but to go to the second floor, there is no elevator.  I would say the hotel is ok for a short stay, but I am wondering why hotels are giving you handicapped room when you don't ask it !More</t>
   </si>
   <si>
+    <t>Pamsdelivery</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r562190804-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>Robert K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r550066100-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>TMXRBDesertTravelers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r525030322-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>Super clean and seriously the comfort of home. So nice on an long stay - we spent 10 nights - to be able to cook, relax and feel as if you are in an apartment and hotel room. Our first experience at Residence Inn. The Pasadena Arcadia Inn is really, really nice. The hotel staff were super friendly and very helpful. Morning breakfast is substantial. Great fresh waffles. Pool was clean and enjoyed that quite a bit.We are very picky about a room being clean. These rooms are very clean. If you get the second story room, be ready for stairs. I got a work out but it was good for me. The hotel is in walking distance of lots of stuff, including a great Blues club. And a drive to local grocery stores is only a short distance. Lots to do and see in the area. Malls are not typically on my list but the mall nearby is really, really nice.If we are in the area, this is where we will stay and based on this experience I will seek out a Residence Inn in other areas if available.More</t>
   </si>
   <si>
+    <t>dan85leah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r524997212-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -276,6 +291,9 @@
     <t>Nice hotel. It is the old style Residence Inn that is 2 story with no elevators. They have a decent  outdoor pool area that we didn't use. We had the loft room with a King bed and pull out sofa. When we arrived our sliding door was open and there were guitar picks on the floor and no pillows for the pull out mattress. They did deliver pillows within minutes after the second request. Very friendly front desk and breakfast staff'More</t>
   </si>
   <si>
+    <t>785yiy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r522068232-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>751aprile</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r486243067-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>We came here to for a U2 concert at the Rose Bowl. We got there late so just checked in and put down our stuff. Check in staff was helpful. I noticed a wet spot in the carpet and since we have dogs at home I immediately realized this was dog urine. Too busy to do anything about it. We put a towel over it. Came back really late. Just crashed. The whole room smelled like dog urine. Told them when we checked out. No apology just said ok thanks for telling us. Thought there should have been a discount offered for the room. If we hadn't been so tired we would have had to change rooms or leave but fatigue took us over. The staff here is very nice and friendly. Not sure why not very receptive on check out. More</t>
   </si>
   <si>
+    <t>Oliver J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r479250931-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -339,6 +363,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>SKR944</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r474137661-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -357,6 +384,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Sandra G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r468700465-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t>We have stayed at this Residence Inn several times. The time before this trip, we had two 2-bedroom units. We love the layout of the rooms, but the rooms were mediocre in cleanliness. We had mentioned this to the manager in a Residence Inn review previously, and her reply was that she was surprised at our comments about the floor not being vacuumed well and bits and pieces of trash, pills, as well as hairs in the bathroom and shower. She stated that their cleanliness is above normal. Well, it is not. Before we booked this trip, we searched for another hotel, but hotels are busy in March, and California is usually full of tourists. The location is very convenient, so we opted to stay here again. We had a studio this time--first time for this type of unit. The layout is terrible. The couch is in the way at all times. It was crowded even for just 2 people. The couch is very uncomfortable for sitting. I realize it is a sofa bed, but still, we have vacation homes, and our sofa beds have high backs and are large and comfortable for guests to relax on while sitting as well as comfortable for sleeping. They could also put some foot stools as watching TV was very uncomfortable. The lower level was  so noisy during the night from the upstairs people and people outside coming and going until 2 or...We have stayed at this Residence Inn several times. The time before this trip, we had two 2-bedroom units. We love the layout of the rooms, but the rooms were mediocre in cleanliness. We had mentioned this to the manager in a Residence Inn review previously, and her reply was that she was surprised at our comments about the floor not being vacuumed well and bits and pieces of trash, pills, as well as hairs in the bathroom and shower. She stated that their cleanliness is above normal. Well, it is not. Before we booked this trip, we searched for another hotel, but hotels are busy in March, and California is usually full of tourists. The location is very convenient, so we opted to stay here again. We had a studio this time--first time for this type of unit. The layout is terrible. The couch is in the way at all times. It was crowded even for just 2 people. The couch is very uncomfortable for sitting. I realize it is a sofa bed, but still, we have vacation homes, and our sofa beds have high backs and are large and comfortable for guests to relax on while sitting as well as comfortable for sleeping. They could also put some foot stools as watching TV was very uncomfortable. The lower level was  so noisy during the night from the upstairs people and people outside coming and going until 2 or 3 a.m.. There was a clanging noise in the locked closed where (I think) the heating/air conditioning unit is located. Every time the unit stopped running, the clanging started. I got little sleep. Cleanliness was again a major drawback. When we first entered the room, there was a foul odor. We opened the kitchen sink cabinet, and the trash can was there--FULL. It smelled terrible. We called the front desk and they said they would send someone from housekeeping. The garbage disposal also smelled. We put detergent in it and ran it which helped. In the meantime, we found trash on the floor (clippings from the tags on new clothes) and dirt particles. It looked like they just vacuumed (or attempted to) in a rush and whatever didn't get picked up in that quick swipe just remained on the floor. The person from housekeeping came immediately and took the trash and we mentioned the poor vacuum job. She offered to bring a vacuum and do the floor again, but we told her "never mind" since we brought out slippers to prevent having to walk on the floors! All of this is totally unnecessary if one hires good housekeepers and really checks their work or requires them to do a good job to get paid. I was so disgusted by our previous stay that I tried not to look at everything else carefully in case I might find something. I would like to see all of these units get a once in 3 months spring cleaning. The coffee pot had swirls on the top of it from a dirty wet towel having been dragged over it--obviously not a good cleaning. I didn't even want to use the remote control as it was sticky, and when I slapped my hand down on the couch, dust flew everywhere. Nothing was horrible, but still, can't they take time to vacuum the couch and wipe down the remote control? They did have lots of electrical outlets for our electronic gadgets, and they were all within easy reach. There were 2 closets which helps with 2 guests. It would have been nice to have 2 bathroom sinks, but . . . . Parking is horrible if you don't get a space before 10 p.m. Literally, they don't have enough spots and you may end up parking a long way from your unit or having to drop off your family members and then go back and find a space and walk back. The free breakfast was horrible. The first morning my friend got food and I wasn't sure of what it was. The only decent items were the self-made waffles and the fruit and coffee. Other items were really difficult to take even the first bite. We just went to McDonald's the second morning. This is the best location for visiting Santa Anita, and we really like the "idea" of the Residence Inn, but we are going to continue to look elsewhere for our next visit, even if it means driving a few more miles to the track. I'm not sure this is possible. I would have given fewer stars, but I think other hotels are about the same quality on cleanliness. For the money that they charge, the cleaning and breakfast should be superb. Therefore, I rated it average, but this is just in comparison to other hotels. More</t>
   </si>
   <si>
+    <t>Jack H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r454772833-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -408,6 +441,9 @@
     <t>In our case it was bad. Hard to blame the hotel staff. Inconsiderate couple next door had two dogs constantly yapping. Worst yet they walked them every 6:15AM throughout the hotel walkways just outside most lower rooms. We love dogs but strange that these barked non stop while walking. We tried to be patient but finally cut our stay from 8 nights to 5. Plus side: Great staff, room size, full kitchen, large fridge with ice maker, good variety at breakfast, safe location. Valiant effort by Housekeeping in days of pouring rain (all walkways outside). Minus side: Not quiet (can hear all outside conversations) bad internet, non smoking room smelled of smoke, carpet needed cleaning ( same issue years ago), room didn't seem "newly renovated" as stated, repair men not the swiftest ( repaired bath door lock backwards so was immediately locked in). More</t>
   </si>
   <si>
+    <t>cmlmtl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r454508824-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -426,6 +462,9 @@
     <t>Stayed here for a few nights while visiting friends in area. Staff friendly and courteous. Our original room overlooked the basketball courts and when we asked, they moved us right away to a quieter location. Breakfast was good. Compared to other Marriott properties we have stayed, rooms could use updating and a better cleaning. We wouldn't rule out staying here again but will also explore other options.More</t>
   </si>
   <si>
+    <t>WinecountryMartha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r427758130-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -444,6 +483,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Karen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r419610307-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -471,6 +513,9 @@
     <t>This was our second stay here while visiting family in the area. I thought it was a fairly decent hotel when we stayed last year. This time I was uneasy about the cleanliness factor. When I found that the trashcan under the kitchen sink was half full, it made me wonder what else housekeeping overlooked. The property is older but the rooms look recently renovated.  Although the bed was pretty comfortable, the sheets need an upgrade.  I don't know if the sheets were really old or just cheap but there was so much cotton pilling on them. It definitely did not feel nice against my skin. I'm glad that we just stayed for one night. On a positive note, the staff is always pleasant and the hotel is located in a good area. More</t>
   </si>
   <si>
+    <t>ghalm00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r419288786-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -489,6 +534,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Trinety217</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r389607244-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -507,6 +555,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Keith P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r382869827-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
   </si>
   <si>
@@ -520,6 +571,9 @@
   </si>
   <si>
     <t>Great place to stay.  All the creature comforts of home.  We stayed here in between moving.  It was pet friendly which we needed and not easy to find.   The room was clean and we got free breakfast in the mornings</t>
+  </si>
+  <si>
+    <t>Claire J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29105-d84380-r379738421-Residence_Inn_by_Marriott_Pasadena_Arcadia-Arcadia_California.html</t>
@@ -1048,43 +1102,47 @@
       <c r="A2" t="n">
         <v>27410</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1100,56 +1158,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27410</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1169,50 +1231,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27410</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1226,50 +1292,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27410</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1289,50 +1359,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27410</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1348,56 +1422,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27410</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1417,50 +1495,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27410</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1472,56 +1554,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27410</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1539,50 +1625,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27410</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1602,41 +1692,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27410</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
@@ -1653,56 +1747,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27410</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1714,56 +1812,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27410</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -1781,56 +1883,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="X13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27410</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -1850,50 +1956,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27410</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1905,56 +2015,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27410</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -1968,50 +2082,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27410</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2025,41 +2143,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>27410</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
@@ -2078,50 +2200,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>27410</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2137,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="X19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
